--- a/stripped/S60007.mes.bin.xlsx
+++ b/stripped/S60007.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC375463-DDC4-4CD5-9CE7-E9E59FB899C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F95146-D48E-4B4A-821D-39D839A1EF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16275" yWindow="6510" windowWidth="33855" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S60007.mes.bin" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
     <t>71</t>
   </si>
   <si>
-    <t>^No, nothing like that. Actually, right after we hung up\nlast night, I got a call from Ogata-san-san.^</t>
+    <t>^No, nothing like that. Actually, right after we hung up\nlast night, I got a call from Ogata-san.^</t>
   </si>
   <si>
     <t>73</t>

--- a/stripped/S60007.mes.bin.xlsx
+++ b/stripped/S60007.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F95146-D48E-4B4A-821D-39D839A1EF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF2F654-F5C9-43A5-B694-BEBB9E2C44C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="5460" windowWidth="50850" windowHeight="21795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S60007.mes.bin" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="166">
   <si>
     <t>Status</t>
   </si>
@@ -65,7 +65,7 @@
     <t>Touya</t>
   </si>
   <si>
-    <t>^Yes? This is Touya-kun speaking.^</t>
+    <t>^Yes? This is Fujii speaking.^</t>
   </si>
   <si>
     <t>19</t>
@@ -161,6 +161,9 @@
     <t>73</t>
   </si>
   <si>
+    <t>^Ogata-san? Like Eiji Ogata-san?^</t>
+  </si>
+  <si>
     <t>75</t>
   </si>
   <si>
@@ -222,6 +225,9 @@
   </si>
   <si>
     <t>111</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Does it have anything to\ndo with what happened with Yayoi-san?</t>
   </si>
   <si>
     <t>113</t>
@@ -919,7 +925,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1513,7 +1521,9 @@
         <v>15</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -1522,7 +1532,7 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
@@ -1538,13 +1548,13 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -1554,7 +1564,7 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
@@ -1570,7 +1580,7 @@
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
@@ -1586,7 +1596,7 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1600,7 +1610,7 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
@@ -1616,7 +1626,7 @@
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1630,7 +1640,7 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1644,7 +1654,7 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1658,7 +1668,7 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1672,7 +1682,7 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
@@ -1680,7 +1690,7 @@
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -1690,7 +1700,7 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
@@ -1706,7 +1716,7 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
@@ -1722,7 +1732,7 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
@@ -1738,7 +1748,7 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
@@ -1754,7 +1764,7 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
@@ -1770,7 +1780,7 @@
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1784,7 +1794,7 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1798,12 +1808,14 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
+      <c r="F57" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -1812,7 +1824,7 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -1826,13 +1838,13 @@
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -1842,7 +1854,7 @@
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -1856,7 +1868,7 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -1870,7 +1882,7 @@
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
@@ -1886,7 +1898,7 @@
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -1900,7 +1912,7 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
@@ -1916,7 +1928,7 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -1930,7 +1942,7 @@
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
@@ -1946,7 +1958,7 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
@@ -1962,7 +1974,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -1976,7 +1988,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -1990,7 +2002,7 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2004,7 +2016,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
@@ -2020,7 +2032,7 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
@@ -2028,7 +2040,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -2038,7 +2050,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
@@ -2054,7 +2066,7 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
@@ -2070,7 +2082,7 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -2084,7 +2096,7 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2098,7 +2110,7 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -2112,7 +2124,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -2126,7 +2138,7 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -2140,7 +2152,7 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -2154,7 +2166,7 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
@@ -2170,7 +2182,7 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
@@ -2186,7 +2198,7 @@
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
@@ -2202,7 +2214,7 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -2216,7 +2228,7 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
@@ -2224,7 +2236,7 @@
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
@@ -2234,7 +2246,7 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -2248,7 +2260,7 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -2262,7 +2274,7 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -2276,7 +2288,7 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -2290,7 +2302,7 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2304,7 +2316,7 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -2318,7 +2330,7 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -2332,7 +2344,7 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -2346,7 +2358,7 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -2360,7 +2372,7 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
@@ -2376,7 +2388,7 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -2390,7 +2402,7 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
@@ -2406,7 +2418,7 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
@@ -2414,7 +2426,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -2424,7 +2436,7 @@
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -2438,7 +2450,7 @@
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -2452,7 +2464,7 @@
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -2466,7 +2478,7 @@
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2" t="s">
@@ -2482,7 +2494,7 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
@@ -2498,7 +2510,7 @@
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2" t="s">
@@ -2514,7 +2526,7 @@
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
@@ -2530,7 +2542,7 @@
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2" t="s">
@@ -2546,7 +2558,7 @@
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -2560,7 +2572,7 @@
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2" t="s">
@@ -2576,7 +2588,7 @@
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
@@ -2592,7 +2604,7 @@
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2" t="s">
@@ -2608,7 +2620,7 @@
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
@@ -2624,7 +2636,7 @@
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -2638,7 +2650,7 @@
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
@@ -2646,7 +2658,7 @@
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
@@ -2656,7 +2668,7 @@
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -2670,7 +2682,7 @@
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
@@ -2686,7 +2698,7 @@
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2" t="s">
@@ -2702,7 +2714,7 @@
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="s">
@@ -2718,7 +2730,7 @@
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -2732,7 +2744,7 @@
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -2746,7 +2758,7 @@
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -2760,7 +2772,7 @@
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4" t="s">
@@ -2776,7 +2788,7 @@
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2" t="s">
@@ -2792,7 +2804,7 @@
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -2806,7 +2818,7 @@
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2" t="s">
@@ -2822,7 +2834,7 @@
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4" t="s">
@@ -2838,7 +2850,7 @@
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -2852,7 +2864,7 @@
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="s">
@@ -2868,7 +2880,7 @@
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2" t="s">
@@ -2884,7 +2896,7 @@
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -2898,7 +2910,7 @@
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2" t="s">
@@ -2906,7 +2918,7 @@
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
@@ -2916,7 +2928,7 @@
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
@@ -2932,7 +2944,7 @@
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2" t="s">
@@ -2948,7 +2960,7 @@
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -2962,7 +2974,7 @@
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2" t="s">
@@ -2978,7 +2990,7 @@
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -2992,7 +3004,7 @@
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2" t="s">
@@ -3008,7 +3020,7 @@
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
@@ -3024,7 +3036,7 @@
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -3038,7 +3050,7 @@
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -3052,7 +3064,7 @@
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -3066,7 +3078,7 @@
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -3080,7 +3092,7 @@
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -3094,7 +3106,7 @@
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -3108,7 +3120,7 @@
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -3122,7 +3134,7 @@
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -3136,7 +3148,7 @@
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
